--- a/manufacturing/multivib.xlsx
+++ b/manufacturing/multivib.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\multivib\manufacturing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5FC9EB-119B-4400-AA9E-2A2C5F5DC6B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E22DEB-6F7A-4E6B-85FD-D009249DABC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="3096" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>Comment</t>
   </si>
@@ -31,15 +31,6 @@
     <t>Footprint</t>
   </si>
   <si>
-    <t>LCSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Voltage</t>
-  </si>
-  <si>
     <t xml:space="preserve"> lcsc</t>
   </si>
   <si>
@@ -55,12 +46,6 @@
     <t>Capacitor_SMD:C_0805_2012Metric</t>
   </si>
   <si>
-    <t>C0G</t>
-  </si>
-  <si>
-    <t>50v</t>
-  </si>
-  <si>
     <t>C1790</t>
   </si>
   <si>
@@ -70,9 +55,6 @@
     <t>C3,C4</t>
   </si>
   <si>
-    <t>X7R</t>
-  </si>
-  <si>
     <t>C49678</t>
   </si>
   <si>
@@ -88,15 +70,6 @@
     <t>C2297</t>
   </si>
   <si>
-    <t>MountingHole</t>
-  </si>
-  <si>
-    <t>H1,H2,H3,H4</t>
-  </si>
-  <si>
-    <t>MountingHole:MountingHole_2.2mm_M2_DIN965</t>
-  </si>
-  <si>
     <t>KLS2-301-5.00-02P-2S</t>
   </si>
   <si>
@@ -137,9 +110,6 @@
   </si>
   <si>
     <t>Resistor_SMD:R_0805_2012Metric_Pad1.20x1.40mm_HandSolder</t>
-  </si>
-  <si>
-    <t>1%</t>
   </si>
   <si>
     <t>C17560</t>
@@ -187,8 +157,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -529,313 +502,206 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet 1"/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.69921875" customWidth="1"/>
     <col min="2" max="2" width="12.3984375" customWidth="1"/>
     <col min="3" max="3" width="56.5" customWidth="1"/>
-    <col min="8" max="8" width="12.19921875" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="H6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="H7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
